--- a/孙明伟/测试用例/明心心理咨询阅读模块测试用例.xlsx
+++ b/孙明伟/测试用例/明心心理咨询阅读模块测试用例.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baozhangjun\Desktop\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\test\project-manager\孙明伟\测试用例\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B6278C-E445-4C29-9812-93DCE7368CE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19104" windowHeight="7620"/>
+    <workbookView xWindow="3180" yWindow="570" windowWidth="15585" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="阅读模块" sheetId="3" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>所属模块</t>
   </si>
@@ -127,15 +128,6 @@
     <t>1.进入文章详情页面</t>
   </si>
   <si>
-    <t>点击咨询师是否进入咨询师详情界面</t>
-  </si>
-  <si>
-    <t>1.点击咨询师</t>
-  </si>
-  <si>
-    <t>1.进入咨询师详情页面</t>
-  </si>
-  <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,8 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,19 +187,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -228,13 +221,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,46 +504,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -573,7 +571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -590,7 +588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -600,14 +598,14 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -624,7 +622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="129.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -634,14 +632,14 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -651,14 +649,14 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="158.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -668,14 +666,14 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -692,21 +690,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>31</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="F12">
         <v>404</v>
@@ -715,5 +713,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>